--- a/data/trans_orig/Q5412-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4343</v>
+        <v>4765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01589114001246909</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07264708062239776</v>
+        <v>0.07970908083186025</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5354</v>
+        <v>5414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01061581796677312</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05982959111516284</v>
+        <v>0.06049284499033896</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>58834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55441</v>
+        <v>55019</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>59784</v>
@@ -816,7 +816,7 @@
         <v>0.9841088599875309</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9273529193776012</v>
+        <v>0.92029091916814</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>88543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84139</v>
+        <v>84079</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>89493</v>
@@ -850,7 +850,7 @@
         <v>0.9893841820332269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9401704088848351</v>
+        <v>0.9395071550096604</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -1114,19 +1114,19 @@
         <v>3542</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7599</v>
+        <v>8280</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04936834562703243</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01254568774275076</v>
+        <v>0.01234840629567036</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1059052725819973</v>
+        <v>0.1153929888222811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6438</v>
+        <v>7451</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08968519409703525</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2651921117459367</v>
+        <v>0.3069294863065523</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1156,19 +1156,19 @@
         <v>5720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2430</v>
+        <v>2534</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12494</v>
+        <v>11913</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05956004854230353</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02530736314881576</v>
+        <v>0.02638310296412987</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1301050694565393</v>
+        <v>0.1240550021978053</v>
       </c>
     </row>
     <row r="11">
@@ -1185,19 +1185,19 @@
         <v>68212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64155</v>
+        <v>63474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>70854</v>
+        <v>70868</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9506316543729676</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8940947274180027</v>
+        <v>0.8846070111777203</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9874543122572492</v>
+        <v>0.9876515937043296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1206,7 +1206,7 @@
         <v>22098</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17837</v>
+        <v>16824</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>24275</v>
@@ -1215,7 +1215,7 @@
         <v>0.9103148059029648</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7348078882540632</v>
+        <v>0.6930705136934472</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1227,19 +1227,19 @@
         <v>90310</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>83536</v>
+        <v>84117</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>93600</v>
+        <v>93496</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9404399514576964</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8698949305434607</v>
+        <v>0.8759449978021949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9746926368511861</v>
+        <v>0.9736168970358701</v>
       </c>
     </row>
     <row r="12">
@@ -1331,19 +1331,19 @@
         <v>7131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3514</v>
+        <v>3476</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13242</v>
+        <v>13322</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02742089716116679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01351295159653607</v>
+        <v>0.0133644324794486</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05091718576559124</v>
+        <v>0.05122493120017155</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7738</v>
+        <v>7816</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02588834818169769</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09024209688491566</v>
+        <v>0.09114696054802497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1373,19 +1373,19 @@
         <v>9351</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4648</v>
+        <v>4761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16694</v>
+        <v>16566</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02704087948989834</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01344125957382696</v>
+        <v>0.01376626928786617</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04827240573921246</v>
+        <v>0.04790227968156198</v>
       </c>
     </row>
     <row r="14">
@@ -1402,19 +1402,19 @@
         <v>252941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>246830</v>
+        <v>246750</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>256558</v>
+        <v>256596</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9725791028388332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9490828142344092</v>
+        <v>0.948775068799828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9864870484034641</v>
+        <v>0.9866355675205514</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -1423,7 +1423,7 @@
         <v>83532</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78014</v>
+        <v>77936</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>85752</v>
@@ -1432,7 +1432,7 @@
         <v>0.9741116518183023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9097579031150844</v>
+        <v>0.9088530394519755</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1444,19 +1444,19 @@
         <v>336473</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>329130</v>
+        <v>329258</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>341176</v>
+        <v>341063</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9729591205101017</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9517275942607876</v>
+        <v>0.952097720318438</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9865587404261731</v>
+        <v>0.9862337307121338</v>
       </c>
     </row>
     <row r="15">
@@ -1551,16 +1551,16 @@
         <v>1031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9200</v>
+        <v>8412</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06931975005005554</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01858302650854169</v>
+        <v>0.01858332447585623</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1658632882076435</v>
+        <v>0.1516656368209117</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1569,19 +1569,19 @@
         <v>4149</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>944</v>
+        <v>1153</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9824</v>
+        <v>10460</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04311097577612621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009804331312597385</v>
+        <v>0.01198240169369464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1020623735756115</v>
+        <v>0.1086802145692936</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1590,19 +1590,19 @@
         <v>7994</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3737</v>
+        <v>3120</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14676</v>
+        <v>14596</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05269260260979855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0246330673341581</v>
+        <v>0.0205661745228672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09673568937170961</v>
+        <v>0.09620766673848284</v>
       </c>
     </row>
     <row r="17">
@@ -1619,7 +1619,7 @@
         <v>51620</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46265</v>
+        <v>47053</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>54434</v>
@@ -1628,10 +1628,10 @@
         <v>0.9306802499499445</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8341367117923567</v>
+        <v>0.8483343631790883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9814169734914583</v>
+        <v>0.9814166755241438</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>87</v>
@@ -1640,19 +1640,19 @@
         <v>92101</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86426</v>
+        <v>85790</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>95306</v>
+        <v>95097</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9568890242238738</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8979376264243886</v>
+        <v>0.8913197854307063</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9901956686874026</v>
+        <v>0.9880175983063054</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>142</v>
@@ -1661,19 +1661,19 @@
         <v>143721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>137039</v>
+        <v>137119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>147978</v>
+        <v>148595</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9473073973902014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9032643106282904</v>
+        <v>0.9037923332615173</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9753669326658418</v>
+        <v>0.9794338254771332</v>
       </c>
     </row>
     <row r="18">
@@ -1778,19 +1778,19 @@
         <v>18820</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11327</v>
+        <v>11547</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30011</v>
+        <v>30028</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04427441559023738</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02664828233537569</v>
+        <v>0.02716394210320542</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07060338438938506</v>
+        <v>0.07064234772103764</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1799,19 +1799,19 @@
         <v>18820</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11435</v>
+        <v>10999</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29196</v>
+        <v>29220</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04389798901940322</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02667183537417259</v>
+        <v>0.02565491843746793</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06810107357371131</v>
+        <v>0.06815811886641954</v>
       </c>
     </row>
     <row r="20">
@@ -1841,19 +1841,19 @@
         <v>406250</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>395059</v>
+        <v>395042</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>413743</v>
+        <v>413523</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9557255844097626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.929396615610615</v>
+        <v>0.9293576522789619</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9733517176646244</v>
+        <v>0.9728360578967945</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>399</v>
@@ -1862,19 +1862,19 @@
         <v>409895</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>399519</v>
+        <v>399495</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>417280</v>
+        <v>417716</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9561020109805968</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9318989264262888</v>
+        <v>0.9318418811335805</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9733281646258275</v>
+        <v>0.9743450815625322</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>15469</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9976</v>
+        <v>9860</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25288</v>
+        <v>24777</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03084170014993067</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01989037368755838</v>
+        <v>0.01965848531793382</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05042050561031075</v>
+        <v>0.0494004512476303</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -1987,19 +1987,19 @@
         <v>27366</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17552</v>
+        <v>18554</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38695</v>
+        <v>40174</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04043231174706541</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02593164612697657</v>
+        <v>0.02741279307595707</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05716940224508994</v>
+        <v>0.05935484914251669</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -2008,19 +2008,19 @@
         <v>42835</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31264</v>
+        <v>31403</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55944</v>
+        <v>57232</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03635032862707489</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02653129423682843</v>
+        <v>0.026648919144565</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04747513066103617</v>
+        <v>0.04856773528297097</v>
       </c>
     </row>
     <row r="23">
@@ -2037,19 +2037,19 @@
         <v>486082</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>476263</v>
+        <v>476774</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>491575</v>
+        <v>491691</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9691582998500693</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9495794943896891</v>
+        <v>0.9505995487523696</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9801096263124416</v>
+        <v>0.9803415146820662</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>635</v>
@@ -2058,19 +2058,19 @@
         <v>649476</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>638147</v>
+        <v>636668</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>659290</v>
+        <v>658288</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9595676882529346</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9428305977549101</v>
+        <v>0.9406451508574833</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9740683538730235</v>
+        <v>0.972587206924043</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1140</v>
@@ -2079,19 +2079,19 @@
         <v>1135558</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1122449</v>
+        <v>1121161</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1147129</v>
+        <v>1146990</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9636496713729251</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9525248693389639</v>
+        <v>0.951432264717029</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9734687057631716</v>
+        <v>0.973351080855435</v>
       </c>
     </row>
     <row r="24">
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5551</v>
+        <v>5355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02378456403225312</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1263865410957944</v>
+        <v>0.1219258990541173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7613</v>
+        <v>7494</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03098152699325197</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1100018579113087</v>
+        <v>0.1082896679090921</v>
       </c>
     </row>
     <row r="5">
@@ -2496,7 +2496,7 @@
         <v>42873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38367</v>
+        <v>38563</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>43918</v>
@@ -2505,7 +2505,7 @@
         <v>0.9762154359677468</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8736134589042058</v>
+        <v>0.8780741009458828</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2517,7 +2517,7 @@
         <v>24189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19470</v>
+        <v>19759</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>25289</v>
@@ -2526,7 +2526,7 @@
         <v>0.9565200299502267</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7698961428320276</v>
+        <v>0.781308622751258</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         <v>67063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61594</v>
+        <v>61713</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>69207</v>
@@ -2547,7 +2547,7 @@
         <v>0.969018473006748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8899981420886904</v>
+        <v>0.8917103320909079</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7181</v>
+        <v>7220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03733191266226404</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1184468724486513</v>
+        <v>0.1190886557308637</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2663,19 +2663,19 @@
         <v>3322</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7998</v>
+        <v>8018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.175742536619114</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05443588717785641</v>
+        <v>0.05321299034797921</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.423140986878874</v>
+        <v>0.42417741521703</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -2684,19 +2684,19 @@
         <v>5585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2177</v>
+        <v>2081</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12246</v>
+        <v>11463</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07022686599497784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02737246520835758</v>
+        <v>0.02616325173084573</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1539794742405514</v>
+        <v>0.1441377787597596</v>
       </c>
     </row>
     <row r="8">
@@ -2713,7 +2713,7 @@
         <v>58367</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53449</v>
+        <v>53410</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>60630</v>
@@ -2722,7 +2722,7 @@
         <v>0.9626680873377359</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8815531275513478</v>
+        <v>0.8809113442691393</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2734,19 +2734,19 @@
         <v>15580</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10904</v>
+        <v>10884</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17873</v>
+        <v>17896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.824257463380886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5768590131211264</v>
+        <v>0.5758225847829701</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9455641128221436</v>
+        <v>0.9467870096520208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>63</v>
@@ -2755,19 +2755,19 @@
         <v>73946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>67285</v>
+        <v>68068</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>77354</v>
+        <v>77450</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9297731340050222</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.846020525759448</v>
+        <v>0.8558622212402403</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9726275347916423</v>
+        <v>0.9738367482691542</v>
       </c>
     </row>
     <row r="9">
@@ -2859,19 +2859,19 @@
         <v>4090</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1059</v>
+        <v>1030</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10004</v>
+        <v>10303</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03447129947062736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008922482673539407</v>
+        <v>0.008684775022697331</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08431497444144355</v>
+        <v>0.08683227329761649</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2880,19 +2880,19 @@
         <v>4404</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9782</v>
+        <v>9989</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0806359623945533</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02115411582034089</v>
+        <v>0.02124266745259381</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1791077341666037</v>
+        <v>0.1829012256078696</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -2901,19 +2901,19 @@
         <v>8494</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3981</v>
+        <v>3178</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15721</v>
+        <v>15772</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04902252156895164</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02297651865531454</v>
+        <v>0.01834138469491713</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09073300093547566</v>
+        <v>0.09102694600679768</v>
       </c>
     </row>
     <row r="11">
@@ -2930,19 +2930,19 @@
         <v>114563</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>108649</v>
+        <v>108350</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>117594</v>
+        <v>117623</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9655287005293727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9156850255585565</v>
+        <v>0.9131677267023838</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9910775173264605</v>
+        <v>0.9913152249773026</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -2951,19 +2951,19 @@
         <v>50211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44833</v>
+        <v>44626</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53460</v>
+        <v>53455</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9193640376054467</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8208922658333963</v>
+        <v>0.8170987743921303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9788458841796591</v>
+        <v>0.9787573325474062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>146</v>
@@ -2972,19 +2972,19 @@
         <v>164774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>157547</v>
+        <v>157496</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>169287</v>
+        <v>170090</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9509774784310484</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9092669990645246</v>
+        <v>0.9089730539932023</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9770234813446855</v>
+        <v>0.9816586153050829</v>
       </c>
     </row>
     <row r="12">
@@ -3076,19 +3076,19 @@
         <v>23370</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14846</v>
+        <v>15005</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34940</v>
+        <v>34687</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1008406576498367</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06406014111637846</v>
+        <v>0.06474596786852886</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1507639682937558</v>
+        <v>0.149673192181498</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3097,19 +3097,19 @@
         <v>3022</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8065</v>
+        <v>7406</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05028400475508229</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01560464715743704</v>
+        <v>0.01580570139608948</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1341998269830925</v>
+        <v>0.1232392962417593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -3118,19 +3118,19 @@
         <v>26392</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16587</v>
+        <v>16456</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38157</v>
+        <v>38164</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0904304011978718</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0568354161520359</v>
+        <v>0.05638613207058969</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1307425539146714</v>
+        <v>0.1307661592285744</v>
       </c>
     </row>
     <row r="14">
@@ -3147,19 +3147,19 @@
         <v>208383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>196813</v>
+        <v>197066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216907</v>
+        <v>216748</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8991593423501633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8492360317062442</v>
+        <v>0.8503268078185022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9359398588836214</v>
+        <v>0.9352540321314712</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -3168,19 +3168,19 @@
         <v>57073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52030</v>
+        <v>52689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59157</v>
+        <v>59145</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9497159952449177</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8658001730169075</v>
+        <v>0.8767607037582406</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.984395352842563</v>
+        <v>0.9841942986039105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>249</v>
@@ -3189,19 +3189,19 @@
         <v>265456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>253691</v>
+        <v>253684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>275261</v>
+        <v>275392</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9095695988021282</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8692574460853284</v>
+        <v>0.8692338407714256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.943164583847964</v>
+        <v>0.9436138679294105</v>
       </c>
     </row>
     <row r="15">
@@ -3293,19 +3293,19 @@
         <v>4225</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10566</v>
+        <v>10431</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04113933922531791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01023215093880356</v>
+        <v>0.0101228370570368</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1028877448462057</v>
+        <v>0.1015747498254875</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3314,19 +3314,19 @@
         <v>26984</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18074</v>
+        <v>18157</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37473</v>
+        <v>38312</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1432253175741786</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09593167671486244</v>
+        <v>0.09637291952986475</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1989002847737272</v>
+        <v>0.2033559141522776</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -3335,19 +3335,19 @@
         <v>31209</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22638</v>
+        <v>20897</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44610</v>
+        <v>43640</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1072104217159695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07776790525139721</v>
+        <v>0.07178642108305344</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1532480912005332</v>
+        <v>0.1499159593319895</v>
       </c>
     </row>
     <row r="17">
@@ -3364,19 +3364,19 @@
         <v>98471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92130</v>
+        <v>92265</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101645</v>
+        <v>101656</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9588606607746821</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.897112255153795</v>
+        <v>0.8984252501745125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9897678490611964</v>
+        <v>0.9898771629429632</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>152</v>
@@ -3385,19 +3385,19 @@
         <v>161416</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150927</v>
+        <v>150088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>170326</v>
+        <v>170243</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8567746824258213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8010997152262727</v>
+        <v>0.7966440858477217</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9040683232851375</v>
+        <v>0.9036270804701348</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>244</v>
@@ -3406,19 +3406,19 @@
         <v>259887</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>246486</v>
+        <v>247456</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>268458</v>
+        <v>270199</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8927895782840305</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8467519087994668</v>
+        <v>0.8500840406680108</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9222320947486028</v>
+        <v>0.9282135789169469</v>
       </c>
     </row>
     <row r="18">
@@ -3523,19 +3523,19 @@
         <v>38723</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27698</v>
+        <v>27034</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53468</v>
+        <v>51925</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09810530788767934</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07017443031458501</v>
+        <v>0.06849196871743105</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1354627018363663</v>
+        <v>0.1315543798116464</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -3544,19 +3544,19 @@
         <v>38723</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>28453</v>
+        <v>27747</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52827</v>
+        <v>52506</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09761372669049144</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07172626109980589</v>
+        <v>0.06994711632299079</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1331697693334379</v>
+        <v>0.1323604150326419</v>
       </c>
     </row>
     <row r="20">
@@ -3586,19 +3586,19 @@
         <v>355981</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>341236</v>
+        <v>342779</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>367006</v>
+        <v>367670</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9018946921123207</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8645372981636344</v>
+        <v>0.8684456201883537</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9298255696854155</v>
+        <v>0.9315080312825694</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>336</v>
@@ -3607,19 +3607,19 @@
         <v>357969</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>343865</v>
+        <v>344186</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>368239</v>
+        <v>368945</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9023862733095086</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8668302306665621</v>
+        <v>0.8676395849673585</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9282737389001939</v>
+        <v>0.9300528836770094</v>
       </c>
     </row>
     <row r="21">
@@ -3711,19 +3711,19 @@
         <v>34993</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24613</v>
+        <v>23993</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48171</v>
+        <v>47952</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06252815223136708</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04398036274270583</v>
+        <v>0.04287187923239322</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08607469512090239</v>
+        <v>0.08568457827733147</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -3732,19 +3732,19 @@
         <v>77553</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61876</v>
+        <v>60339</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97247</v>
+        <v>97532</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1045186773298419</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08339087280302167</v>
+        <v>0.08131819118586446</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1310604278398372</v>
+        <v>0.1314439194262178</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -3753,19 +3753,19 @@
         <v>112546</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>90480</v>
+        <v>93563</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136752</v>
+        <v>134971</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08646497845504161</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06951211397388188</v>
+        <v>0.07188100950989321</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1050611741794246</v>
+        <v>0.1036929497865677</v>
       </c>
     </row>
     <row r="23">
@@ -3782,19 +3782,19 @@
         <v>524644</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>511466</v>
+        <v>511685</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>535024</v>
+        <v>535644</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9374718477686329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9139253048790973</v>
+        <v>0.9143154217226689</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9560196372572941</v>
+        <v>0.9571281207676069</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>623</v>
@@ -3803,19 +3803,19 @@
         <v>664452</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>644758</v>
+        <v>644473</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>680129</v>
+        <v>681666</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8954813226701581</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8689395721601628</v>
+        <v>0.8685560805737828</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9166091271969784</v>
+        <v>0.9186818088141355</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1096</v>
@@ -3824,19 +3824,19 @@
         <v>1189096</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1164890</v>
+        <v>1166671</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1211162</v>
+        <v>1208079</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9135350215449584</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8949388258205755</v>
+        <v>0.8963070502134324</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9304878860261181</v>
+        <v>0.9281189904901068</v>
       </c>
     </row>
     <row r="24">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6127</v>
+        <v>6638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03282329730341099</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.166110032176136</v>
+        <v>0.1799428381870455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6173</v>
+        <v>5219</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01147289984482678</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0584904710888826</v>
+        <v>0.04945389746493704</v>
       </c>
     </row>
     <row r="5">
@@ -4246,7 +4246,7 @@
         <v>35677</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30761</v>
+        <v>30250</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>36888</v>
@@ -4255,7 +4255,7 @@
         <v>0.9671767026965891</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8338899678238623</v>
+        <v>0.8200571618129556</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4267,7 +4267,7 @@
         <v>104324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99362</v>
+        <v>100316</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>105535</v>
@@ -4276,7 +4276,7 @@
         <v>0.9885271001551732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9415095289111175</v>
+        <v>0.9505461025350641</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4371,19 +4371,19 @@
         <v>2956</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6977</v>
+        <v>7665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05540687967298535</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01673642147575011</v>
+        <v>0.01700849112682292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1307914418068941</v>
+        <v>0.1436822310398002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5638</v>
+        <v>5618</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0717301419486993</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.320543428582608</v>
+        <v>0.3194465677654527</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -4413,19 +4413,19 @@
         <v>4217</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9654</v>
+        <v>9500</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05945435908490221</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01460506337050255</v>
+        <v>0.01450392808402308</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1361047794563384</v>
+        <v>0.1339240401049797</v>
       </c>
     </row>
     <row r="8">
@@ -4442,19 +4442,19 @@
         <v>50388</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46367</v>
+        <v>45679</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52451</v>
+        <v>52437</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9445931203270147</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8692085581931061</v>
+        <v>0.8563177689601995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9832635785242498</v>
+        <v>0.9829915088731771</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -4463,7 +4463,7 @@
         <v>16326</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11950</v>
+        <v>11970</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>17588</v>
@@ -4472,7 +4472,7 @@
         <v>0.9282698580513007</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6794565714173921</v>
+        <v>0.680553432234547</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4484,19 +4484,19 @@
         <v>66715</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>61278</v>
+        <v>61432</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>69896</v>
+        <v>69903</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9405456409150978</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8638952205436619</v>
+        <v>0.8660759598950203</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9853949366294974</v>
+        <v>0.9854960719159769</v>
       </c>
     </row>
     <row r="9">
@@ -4588,19 +4588,19 @@
         <v>3701</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>900</v>
+        <v>1220</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9340</v>
+        <v>8689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0307724399569432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00748359081246702</v>
+        <v>0.01014647933253217</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07766448529348791</v>
+        <v>0.07225400056554443</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8201</v>
+        <v>8089</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05459563391037814</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1774805374438136</v>
+        <v>0.1750620537452529</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -4630,19 +4630,19 @@
         <v>6224</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2361</v>
+        <v>2378</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13428</v>
+        <v>13200</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03738530186633181</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01417989683101334</v>
+        <v>0.01428581761402723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08066215543894852</v>
+        <v>0.0792951547192451</v>
       </c>
     </row>
     <row r="11">
@@ -4659,19 +4659,19 @@
         <v>116560</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>110921</v>
+        <v>111572</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>119361</v>
+        <v>119041</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9692275600430568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.922335514706512</v>
+        <v>0.9277459994344552</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9925164091875329</v>
+        <v>0.9898535206674679</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -4680,7 +4680,7 @@
         <v>43686</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38008</v>
+        <v>38120</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>46209</v>
@@ -4689,7 +4689,7 @@
         <v>0.9454043660896219</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8225194625561908</v>
+        <v>0.824937946254747</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4701,19 +4701,19 @@
         <v>160246</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>153042</v>
+        <v>153270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>164109</v>
+        <v>164092</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9626146981336682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9193378445610509</v>
+        <v>0.920704845280754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9858201031689865</v>
+        <v>0.9857141823859727</v>
       </c>
     </row>
     <row r="12">
@@ -4805,19 +4805,19 @@
         <v>7742</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3595</v>
+        <v>3511</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14169</v>
+        <v>13855</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03797880098357617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01763430561620611</v>
+        <v>0.0172226895853331</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06950453968687396</v>
+        <v>0.06796406643835902</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -4826,19 +4826,19 @@
         <v>8892</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3716</v>
+        <v>3604</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18681</v>
+        <v>19019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08977566022129083</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03751915908499743</v>
+        <v>0.03638410107833551</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1886131644917836</v>
+        <v>0.1920176889789242</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -4847,19 +4847,19 @@
         <v>16634</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9569</v>
+        <v>9520</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27638</v>
+        <v>27991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05491588120377625</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03158949863156742</v>
+        <v>0.03142952631793309</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09124267049057858</v>
+        <v>0.09240963230429965</v>
       </c>
     </row>
     <row r="14">
@@ -4876,19 +4876,19 @@
         <v>196114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>189687</v>
+        <v>190001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200261</v>
+        <v>200345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9620211990164238</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.930495460313126</v>
+        <v>0.9320359335616409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9823656943837938</v>
+        <v>0.9827773104146669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -4897,19 +4897,19 @@
         <v>90154</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80365</v>
+        <v>80027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95330</v>
+        <v>95442</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9102243397787092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8113868355082164</v>
+        <v>0.8079823110210751</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9624808409150025</v>
+        <v>0.9636158989216642</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>287</v>
@@ -4918,19 +4918,19 @@
         <v>286268</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>275264</v>
+        <v>274911</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>293333</v>
+        <v>293382</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9450841187962238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9087573295094216</v>
+        <v>0.9075903676957008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9684105013684327</v>
+        <v>0.9685704736820669</v>
       </c>
     </row>
     <row r="15">
@@ -5022,19 +5022,19 @@
         <v>7444</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3372</v>
+        <v>3421</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14228</v>
+        <v>14415</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05125660708975259</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02322112790249585</v>
+        <v>0.02355709271230614</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09797302653708444</v>
+        <v>0.09926253730597631</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5043,19 +5043,19 @@
         <v>7825</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2687</v>
+        <v>2656</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15538</v>
+        <v>15703</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04904436154940692</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01684052881636044</v>
+        <v>0.01664578956597842</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09738596019831794</v>
+        <v>0.09842234536587106</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -5064,19 +5064,19 @@
         <v>15269</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9000</v>
+        <v>8101</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24985</v>
+        <v>25217</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05009847754393001</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02952992950609665</v>
+        <v>0.02658162848713569</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08197861110574137</v>
+        <v>0.08274023092208477</v>
       </c>
     </row>
     <row r="17">
@@ -5093,19 +5093,19 @@
         <v>137777</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130993</v>
+        <v>130806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>141849</v>
+        <v>141800</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9487433929102475</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9020269734629155</v>
+        <v>0.9007374626940239</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9767788720975041</v>
+        <v>0.9764429072876939</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>133</v>
@@ -5114,19 +5114,19 @@
         <v>151725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>144012</v>
+        <v>143847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156863</v>
+        <v>156894</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9509556384505931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.902614039801682</v>
+        <v>0.9015776546341286</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9831594711836396</v>
+        <v>0.9833542104340216</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>284</v>
@@ -5135,19 +5135,19 @@
         <v>289502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>279786</v>
+        <v>279554</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>295771</v>
+        <v>296670</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.94990152245607</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.918021388894259</v>
+        <v>0.9172597690779153</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9704700704939037</v>
+        <v>0.9734183715128646</v>
       </c>
     </row>
     <row r="18">
@@ -5248,19 +5248,19 @@
         <v>31694</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20013</v>
+        <v>19933</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45315</v>
+        <v>45253</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07672534341095053</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04844698083002995</v>
+        <v>0.04825516534017203</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1097006091130459</v>
+        <v>0.1095485225242701</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -5269,19 +5269,19 @@
         <v>31694</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20013</v>
+        <v>19933</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45315</v>
+        <v>45253</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07672534341095053</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04844698083002995</v>
+        <v>0.04825516534017203</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1097006091130459</v>
+        <v>0.1095485225242701</v>
       </c>
     </row>
     <row r="20">
@@ -5307,19 +5307,19 @@
         <v>381389</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>367768</v>
+        <v>367830</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>393070</v>
+        <v>393150</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9232746565890495</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8902993908869541</v>
+        <v>0.8904514774757298</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9515530191699701</v>
+        <v>0.951744834659828</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>322</v>
@@ -5328,19 +5328,19 @@
         <v>381389</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>367768</v>
+        <v>367830</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>393070</v>
+        <v>393150</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9232746565890495</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8902993908869541</v>
+        <v>0.8904514774757298</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9515530191699701</v>
+        <v>0.951744834659828</v>
       </c>
     </row>
     <row r="21">
@@ -5420,19 +5420,19 @@
         <v>21842</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14361</v>
+        <v>14012</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31366</v>
+        <v>30937</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03693728786044777</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02428582029756736</v>
+        <v>0.02369610530868747</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05304403587404487</v>
+        <v>0.05231734419042662</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -5441,19 +5441,19 @@
         <v>53406</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39145</v>
+        <v>38602</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73178</v>
+        <v>73250</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06914622659453508</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05068178761710258</v>
+        <v>0.04997867125663934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09474495454077896</v>
+        <v>0.09483840443579697</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -5462,19 +5462,19 @@
         <v>75248</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>58506</v>
+        <v>59432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95714</v>
+        <v>94639</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05517969474781117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04290289033791343</v>
+        <v>0.04358144980015507</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07018740415910629</v>
+        <v>0.06939895758370951</v>
       </c>
     </row>
     <row r="23">
@@ -5491,19 +5491,19 @@
         <v>569486</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>559962</v>
+        <v>560391</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>576967</v>
+        <v>577316</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9630627121395522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9469559641259552</v>
+        <v>0.9476826558095734</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9757141797024327</v>
+        <v>0.9763038946913125</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>609</v>
@@ -5512,19 +5512,19 @@
         <v>718958</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>699186</v>
+        <v>699114</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>733219</v>
+        <v>733762</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9308537734054649</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.905255045459221</v>
+        <v>0.9051615955642031</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9493182123828975</v>
+        <v>0.9500213287433606</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1212</v>
@@ -5533,19 +5533,19 @@
         <v>1288444</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1267978</v>
+        <v>1269053</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1305186</v>
+        <v>1304260</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9448203052521889</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9298125958408942</v>
+        <v>0.9306010424162907</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9570971096620867</v>
+        <v>0.956418550199845</v>
       </c>
     </row>
     <row r="24">
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1594</v>
+        <v>2161</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002614728296369653</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01324051266007084</v>
+        <v>0.01794855299183641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2039</v>
+        <v>2783</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005468699411749166</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02735313893311821</v>
+        <v>0.03731973448440816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2728</v>
+        <v>2678</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003706178717659583</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01399289400726407</v>
+        <v>0.0137358289045611</v>
       </c>
     </row>
     <row r="5">
@@ -5950,7 +5950,7 @@
         <v>120086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118807</v>
+        <v>118240</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>120401</v>
@@ -5959,7 +5959,7 @@
         <v>0.9973852717036303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9867594873399291</v>
+        <v>0.9820514470081636</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5971,16 +5971,16 @@
         <v>74151</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72520</v>
+        <v>71776</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>74559</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9945313005882508</v>
+        <v>0.994531300588251</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9726468610668819</v>
+        <v>0.9626802655155922</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -5992,16 +5992,16 @@
         <v>194237</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>192232</v>
+        <v>192282</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>194960</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9962938212823406</v>
+        <v>0.9962938212823403</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9860071059927359</v>
+        <v>0.9862641710954392</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6096,19 +6096,19 @@
         <v>1632</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4709</v>
+        <v>3966</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01558213815013608</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004516216105622133</v>
+        <v>0.004575417053423504</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0449736243839549</v>
+        <v>0.03787012045143964</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -6117,19 +6117,19 @@
         <v>2068</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5342</v>
+        <v>4983</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03733448799091436</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0104227258338834</v>
+        <v>0.01025090783509283</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09645195393291073</v>
+        <v>0.08996257769582863</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -6138,19 +6138,19 @@
         <v>3699</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1627</v>
+        <v>1462</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7299</v>
+        <v>6979</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02310711828142235</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01016020630796039</v>
+        <v>0.009133416851831899</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04558861626301558</v>
+        <v>0.04359389533261879</v>
       </c>
     </row>
     <row r="8">
@@ -6167,19 +6167,19 @@
         <v>103083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100006</v>
+        <v>100749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104242</v>
+        <v>104236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9844178618498639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9550263756160449</v>
+        <v>0.9621298795485602</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9954837838943776</v>
+        <v>0.9954245829465764</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>94</v>
@@ -6188,19 +6188,19 @@
         <v>53317</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50043</v>
+        <v>50402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54808</v>
+        <v>54817</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9626655120090857</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9035480460670894</v>
+        <v>0.9100374223041714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9895772741661165</v>
+        <v>0.9897490921649074</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>238</v>
@@ -6209,19 +6209,19 @@
         <v>156401</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152801</v>
+        <v>153121</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>158473</v>
+        <v>158638</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9768928817185774</v>
+        <v>0.9768928817185776</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9544113837369842</v>
+        <v>0.9564061046673813</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9898397936920397</v>
+        <v>0.9908665831481682</v>
       </c>
     </row>
     <row r="9">
@@ -6313,19 +6313,19 @@
         <v>6775</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3226</v>
+        <v>3599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11263</v>
+        <v>12082</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06023565305420089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02868611781625083</v>
+        <v>0.03199785520404206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1001405611081419</v>
+        <v>0.1074259627799248</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -6334,19 +6334,19 @@
         <v>4244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2065</v>
+        <v>1827</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8092</v>
+        <v>7889</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07321539862292245</v>
+        <v>0.07321539862292242</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03561667957896162</v>
+        <v>0.03151129311059516</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1395918851078002</v>
+        <v>0.1360811707806705</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -6355,19 +6355,19 @@
         <v>11019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6685</v>
+        <v>7063</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>17005</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06465031027499646</v>
+        <v>0.06465031027499644</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03922328575332654</v>
+        <v>0.0414372809210382</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09977211311146886</v>
+        <v>0.09977260016022026</v>
       </c>
     </row>
     <row r="11">
@@ -6384,19 +6384,19 @@
         <v>105696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101208</v>
+        <v>100389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>109245</v>
+        <v>108872</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9397643469457989</v>
+        <v>0.939764346945799</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.899859438891858</v>
+        <v>0.8925740372200754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9713138821837488</v>
+        <v>0.9680021447959583</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -6405,19 +6405,19 @@
         <v>53726</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49878</v>
+        <v>50081</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55905</v>
+        <v>56143</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9267846013770776</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8604081148921998</v>
+        <v>0.8639188292193295</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9643833204210385</v>
+        <v>0.9684887068894048</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>251</v>
@@ -6429,16 +6429,16 @@
         <v>153436</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>163756</v>
+        <v>163378</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9353496897250038</v>
+        <v>0.9353496897250037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9002278868885311</v>
+        <v>0.9002273998397797</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9607767142466734</v>
+        <v>0.9585627190789618</v>
       </c>
     </row>
     <row r="12">
@@ -6530,19 +6530,19 @@
         <v>18526</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12201</v>
+        <v>12110</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25821</v>
+        <v>26118</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07125039533871362</v>
+        <v>0.07125039533871363</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04692417772529783</v>
+        <v>0.04657553750442246</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0993093043319174</v>
+        <v>0.1004521611352719</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -6551,19 +6551,19 @@
         <v>8608</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4944</v>
+        <v>5214</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12970</v>
+        <v>13521</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06576787493057633</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03777200589894571</v>
+        <v>0.03983698105111176</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09909730172274257</v>
+        <v>0.1033115461266148</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -6572,19 +6572,19 @@
         <v>27133</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19177</v>
+        <v>20550</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34967</v>
+        <v>36373</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06941468820808989</v>
+        <v>0.06941468820808991</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04905937784252153</v>
+        <v>0.05257197338103807</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0894550042861415</v>
+        <v>0.09305217470106819</v>
       </c>
     </row>
     <row r="14">
@@ -6601,19 +6601,19 @@
         <v>241480</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234185</v>
+        <v>233888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>247805</v>
+        <v>247896</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9287496046612863</v>
+        <v>0.9287496046612864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9006906956680827</v>
+        <v>0.8995478388647281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9530758222747022</v>
+        <v>0.9534244624955776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>241</v>
@@ -6622,19 +6622,19 @@
         <v>122272</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117910</v>
+        <v>117359</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125936</v>
+        <v>125666</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9342321250694237</v>
+        <v>0.9342321250694235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9009026982772576</v>
+        <v>0.8966884538733851</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9622279941010544</v>
+        <v>0.9601630189488882</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>585</v>
@@ -6643,19 +6643,19 @@
         <v>363753</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>355919</v>
+        <v>354513</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>371709</v>
+        <v>370336</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9305853117919101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9105449957138586</v>
+        <v>0.9069478252989317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9509406221574785</v>
+        <v>0.9474280266189621</v>
       </c>
     </row>
     <row r="15">
@@ -6747,19 +6747,19 @@
         <v>4322</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1709</v>
+        <v>2001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8796</v>
+        <v>8957</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04288203537177161</v>
+        <v>0.04288203537177163</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01695384927932552</v>
+        <v>0.01985226688438508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08726321774251633</v>
+        <v>0.08886651797217193</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -6768,19 +6768,19 @@
         <v>27299</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20603</v>
+        <v>20765</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35128</v>
+        <v>34705</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1241625115281443</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09370559017182775</v>
+        <v>0.09444311613976836</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1597687841760535</v>
+        <v>0.1578451223690844</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -6789,19 +6789,19 @@
         <v>31621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24046</v>
+        <v>24773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40251</v>
+        <v>40985</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09861349911520552</v>
+        <v>0.09861349911520555</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07498781940205421</v>
+        <v>0.0772547916512151</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1255260286636468</v>
+        <v>0.1278137781307424</v>
       </c>
     </row>
     <row r="17">
@@ -6818,19 +6818,19 @@
         <v>96471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91997</v>
+        <v>91836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99084</v>
+        <v>98792</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9571179646282284</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9127367822574836</v>
+        <v>0.9111334820278275</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9830461507206744</v>
+        <v>0.9801477331156148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>386</v>
@@ -6839,19 +6839,19 @@
         <v>192567</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>184738</v>
+        <v>185161</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199263</v>
+        <v>199101</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8758374884718558</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8402312158239468</v>
+        <v>0.8421548776309158</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9062944098281722</v>
+        <v>0.9055568838602316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>526</v>
@@ -6860,19 +6860,19 @@
         <v>289039</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>280409</v>
+        <v>279675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296614</v>
+        <v>295887</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9013865008847944</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8744739713363531</v>
+        <v>0.8721862218692576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9250121805979457</v>
+        <v>0.922745208348785</v>
       </c>
     </row>
     <row r="18">
@@ -6977,19 +6977,19 @@
         <v>44000</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34776</v>
+        <v>34784</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54445</v>
+        <v>54297</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1272474926826934</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1005725283783332</v>
+        <v>0.1005955957118721</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1574540886664021</v>
+        <v>0.1570263925644808</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -6998,19 +6998,19 @@
         <v>44000</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35025</v>
+        <v>35291</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53653</v>
+        <v>53257</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1260531882300951</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.100341569732037</v>
+        <v>0.1011029743867033</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1537087610681628</v>
+        <v>0.152572292468228</v>
       </c>
     </row>
     <row r="20">
@@ -7040,19 +7040,19 @@
         <v>301783</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>291338</v>
+        <v>291486</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>311007</v>
+        <v>310999</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8727525073173065</v>
+        <v>0.8727525073173067</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8425459113335979</v>
+        <v>0.8429736074355193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8994274716216668</v>
+        <v>0.8994044042881278</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>563</v>
@@ -7061,19 +7061,19 @@
         <v>305059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>295406</v>
+        <v>295802</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>314034</v>
+        <v>313768</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.873946811769905</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8462912389318372</v>
+        <v>0.8474277075317719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.899658430267963</v>
+        <v>0.8988970256132968</v>
       </c>
     </row>
     <row r="21">
@@ -7165,19 +7165,19 @@
         <v>31569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23233</v>
+        <v>23641</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41751</v>
+        <v>41623</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04499171827282039</v>
+        <v>0.04499171827282038</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03311127870291518</v>
+        <v>0.03369245842143035</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05950288511921564</v>
+        <v>0.05932061110274173</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>166</v>
@@ -7186,19 +7186,19 @@
         <v>86627</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73618</v>
+        <v>73732</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>100475</v>
+        <v>99697</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09794486799933098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08323697892001587</v>
+        <v>0.08336528554828568</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1136027171722652</v>
+        <v>0.1127224334049065</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>216</v>
@@ -7207,19 +7207,19 @@
         <v>118196</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>103128</v>
+        <v>102976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135573</v>
+        <v>135145</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07451941398627887</v>
+        <v>0.07451941398627886</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06501966879056215</v>
+        <v>0.06492396178614299</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08547511214466608</v>
+        <v>0.08520522185669271</v>
       </c>
     </row>
     <row r="23">
@@ -7236,19 +7236,19 @@
         <v>670094</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>659912</v>
+        <v>660040</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>678430</v>
+        <v>678022</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9550082817271797</v>
+        <v>0.9550082817271798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9404971148807847</v>
+        <v>0.9406793888972583</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.966888721297085</v>
+        <v>0.9663075415785697</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1507</v>
@@ -7257,19 +7257,19 @@
         <v>797816</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>783968</v>
+        <v>784746</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>810825</v>
+        <v>810711</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9020551320006691</v>
+        <v>0.902055132000669</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8863972828277347</v>
+        <v>0.8872775665950935</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9167630210799841</v>
+        <v>0.9166347144517144</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2464</v>
@@ -7278,19 +7278,19 @@
         <v>1467910</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1450533</v>
+        <v>1450961</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1482978</v>
+        <v>1483130</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9254805860137213</v>
+        <v>0.925480586013721</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9145248878553338</v>
+        <v>0.9147947781433073</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9349803312094379</v>
+        <v>0.935076038213857</v>
       </c>
     </row>
     <row r="24">
